--- a/config_debug/login_benefits_server.xlsx
+++ b/config_debug/login_benefits_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675"/>
   </bookViews>
   <sheets>
     <sheet name="real_cfg" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>award_id</t>
   </si>
@@ -159,7 +159,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>fish_coin</t>
+    <t>jing_bi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -167,29 +187,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -208,6 +209,20 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -238,7 +253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -268,9 +283,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -620,8 +632,8 @@
       <c r="C4" s="2">
         <v>10000000</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -637,8 +649,8 @@
       <c r="C5" s="2">
         <v>3000000</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>15</v>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
@@ -671,8 +683,8 @@
       <c r="C7" s="2">
         <v>1200000</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>15</v>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E7" s="2">
         <v>12</v>
@@ -834,14 +846,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="3" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.25" customWidth="1"/>
     <col min="5" max="5" width="11.375" customWidth="1"/>
   </cols>
@@ -911,8 +924,8 @@
       <c r="C4" s="2">
         <v>10000000</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
@@ -931,8 +944,8 @@
       <c r="C5" s="2">
         <v>3000000</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>15</v>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
@@ -973,8 +986,8 @@
       <c r="C7" s="2">
         <v>1200000</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>15</v>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="2">
         <v>25</v>

--- a/config_debug/login_benefits_server.xlsx
+++ b/config_debug/login_benefits_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="real_cfg" sheetId="1" r:id="rId1"/>
@@ -80,22 +80,6 @@
   </si>
   <si>
     <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>00万鱼币</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>1</t>
     </r>
     <r>
@@ -107,22 +91,6 @@
         <charset val="134"/>
       </rPr>
       <t>80万金币</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>20万鱼币</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -181,6 +149,12 @@
   <si>
     <t>jing_bi</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>300万金币</t>
+  </si>
+  <si>
+    <t>120万金币</t>
   </si>
 </sst>
 </file>
@@ -561,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -633,7 +607,7 @@
         <v>10000000</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -644,13 +618,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
         <v>3000000</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
@@ -661,7 +635,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
         <v>1800000</v>
@@ -678,13 +652,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>1200000</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2">
         <v>12</v>
@@ -695,7 +669,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2">
         <v>1000000</v>
@@ -712,7 +686,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
         <v>800000</v>
@@ -846,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -925,7 +899,7 @@
         <v>10000000</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
@@ -939,13 +913,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
         <v>3000000</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
@@ -959,7 +933,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
         <v>1800000</v>
@@ -981,13 +955,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>1200000</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2">
         <v>25</v>
@@ -1003,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2">
         <v>1000000</v>
@@ -1025,7 +999,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
         <v>800000</v>
